--- a/500all/speech_level/speeches_CHRG-114hhrg94927.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94927.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="439">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412310</t>
   </si>
   <si>
-    <t>David P. Roe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Roe. A quorum being present, the Subcommittee on Health, Employment, Labor, and Pensions will come to order.    Good morning. I would like to begin by extending a special welcome to Secretary Perez. And we appreciate your willingness to engage in open and frank conversations about important issues facing working families and job creators.    I know there are areas where we will disagree, but we will always welcome the opportunity to raise our concerns and lay out what we believe are more positive alternatives.    I wish we were here to discuss a proposal that enjoyed broad bipartisan support, one that would help strengthen our economy and improve the lives of hardworking men and women. Unfortunately, that is not the case.    Instead, we are here to address a regulatory scheme that will hurt a lot of families, retirees, and small-business owners. And it could not come at a worse-possible time.    One of the most difficult challenges we face as a country is a lack of real retirement security for America's families. The defined benefit pension system continues to experience a decades-long decline while many workers are still rebuilding the savings they lost in the recent recession.    Due to these and other challenges, including a persistently weak economy, too many workers are retiring without the means necessary to ensure their financial security.    And just a moment. I found some information about retirement security by a GAO report, Mr. Secretary, that shows that 29 percent of households 55 and older have no retirement savings and 23 percent have a defined benefit plan, but no retirement savings. So it is a real issue.    And I would like, without objection, to have this report submitted for the record; and also another report submitted for the record, the U.S. Chamber finds that the DOL-proposed fiduciary rule could impact 9 million small-business households. And I would like to have that introduced for the record also.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412308</t>
   </si>
   <si>
-    <t>Jared Polis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman.    Today we will be discussing an important issue that has been simmering for several years now after the Department of Labor chose to modify the first version of this rule several years ago, they have been working to listen to a broad spectrum of stakeholders on how best to proceed.    And I think that everybody in the room on all sides of this issue believes in a best-interest or fiduciary standard because I think we are all here out of concern that the clients' interests should be paramount.    But what this comes down to is how to make that happen and how to implement the rule in a way that makes sense and benefits consumers.    I truly believe today that most advisers do what is in the best interest of their clients, and hopefully the final rule won't be an overwhelming burden on those good actors.    However, providing a standard that those few bad actors need to abide by is absolutely essential, as well as to improve transparency in the industry.    As we all know, most Americans are not saving enough for retirement. It is essential that what little is being invested should not be biased by conflicted advice. Investors should be able to trust the person advising them about the money they need to live after retirement without having to worry about that adviser's self-interest.    On the other side of the coin, we need to protect individuals and small businesses to make sure that they have access to quality advice, because mistakes in investments cost billions of dollars, and good advice is well worth the price.    I am thankful to all of our witnesses for coming today to share their experience, and I am particularly glad that we are beginning with the Secretary of Labor. And I am glad to hear that he is interested in hearing our feedback about the rule. And I am thrilled that he has decided to extend the comment period by an additional 15 days.    I know that he has been working diligently on an overall goal of expansion of retirement savings as a way to address the retirement crisis. They have been doing a great deal of work in the Department of Labor on financial literacy, increasing effective enforcement by the Employee Benefits Security Administration, providing technical assistance to employers and workers and retirees about saving for retirement.    A good, workable rule regarding a best-interest standard can help increase trust between a client and their adviser, and that is an important part of expanding retirement savings.    I don't think anybody thinks that the current rule is perfect, and that is why I am thrilled we are having this conversation and that the Secretary has extended the comment period for 15 more days.    I will be asking some in-depth questions, both at this hearing as well as for the record, because although I believe that this process should continue forward to close a loophole and establish a fiduciary standard that reflects today's retirement landscape, we also need to understand and fix any unintended consequences, especially for low- and middle-income investors and small businesses.    Ensuring that people are receiving good, affordable, conflict-free advice should be our end goal here. And I look forward to hearing in-depth answers from the knowledgeable questions from the members of this committee so that we can help the Secretary reach an end result that helps those most in need and improves trust in the client-adviser relationship and leads to greater retirement savings for Americans.    Thank you, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Perez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Perez. Good morning. Thank you, Mr. Chairman. It is a pleasure to be here, Ranking Member Polis, Chairman Kline, and other members of the Committee. It is an honor to be here, and thank you for allowing me to come to discuss the Department's important efforts to help ensure that your constituents and all Americans have access to sound investment advice that a middle-class retirement requires.    Merlin Toffel did everything right. He was a veteran of the U.S. Navy and an electrician. He and his wife, Elaine, raised their four kids in Lindenhurst, Illinois, and instilled in them those middle-class values befitting of their greatest generation.    They loved to travel. They worked hard and they took care to save wisely. Over four decades, they built up an impressive portfolio with Vanguard: Merlin at the helm managing the account and Elaine, an accountant, keeping the books.    Life took its toll. Merlin was diagnosed with Alzheimer's. When Merlin could no longer manage their finances, Elaine made an appointment at the local retail bank. This is the bank they had been using for years. They trusted them.    The bank's investment broker told her to liquidate the impressive Vanguard portfolio and sold them variable annuities to the tune of $650,000. Elaine trusted that advice. It was in her best interests, she thought.    But those variable annuities charged nearly 4 percent of the investment per year, or $26,000, the rough cost of buying a new car each year. And if the Toffel's needed to access the money right away, as all too many families face when their loved one is in decline, a 7 percent surrender charge would cost them more than $45,000.    In the end, the broker's conflicted advice cost a hardworking, middle-class family more than $50,000.    The Toffel's story is tragic, but regrettably is it not unique.    Conservative estimates by the Council of Economic Advisers place the cost of conflicted advice at more than $17 billion annually. Our economic analysis shows that conservatively the amount that savers would benefit from our rule, and this is only based on a slice of the IRA market, would be $40 billion over 10 years.    For families like the Toffels, families who have done everything we ask of the American middle class, the stakes could not be higher.    ERISA is over four decades old. In my parents' generation, average Americans retired after working their entire life in the same company. Their retirement was met by with both a commemorative pen and a concrete pension. Because that pension was a defined benefit, the only thing at risk of running dry was the ink in the pen.    But times have changed. Defined benefit plans have given way to defined contribution plans. Now consumers are in control of making their own investment decisions through from 401(k)s and IRAs. We can still count on that commemorative pen, but a secure retirement is less predictable.    For the majority of Americans without a finance degree, the market is, at best, a confusing place.    I appreciate the fact that you are a very distinguished doctor in addition to a member of Congress, Mr. Chairman. I have four siblings and they are all doctors. And you know, I am a lawyer, and I promised them I would never be a plaintiff's personal injury lawyer, and I kept that promise, no disrespect to any plaintiff's personal injury lawyers around the table.    But you know what? As I said, three of the most important decisions that people make in their lives are medical, legal, and financial. And I know my siblings, the doctors, they understand that they have a very concrete obligation to put their patients' best interests first, just as I as a lawyer have an obligation to put my clients' best interests first. That is clear.    And most people assume that the same holds true for their financial professionals. But that is not necessarily the case.    Indeed, many of those working in the retirement space are in fact doing the right thing. Many of them are fiduciaries already, having taken an oath to serve in the best interests of their clients.    Yet many more are not fiduciaries, and despite marketing that might suggest otherwise, they operate under no such commitment to do what is in the best interests of their clients.    When seeking advice on retirement, consumers are at an informational disadvantage. This playing field is not level.    But this is not simply about people who do bad things. I actually think, and I agree with both the Chairman and the Ranking Member, that the vast majority of people who provide advice are trying to do the right thing. I have not heard from anyone who said that I don't do anything but try to put my customers' best interests first.    But the challenge is that the system is flawed. They are operating within a structurally flawed system, a market that sees the personal financial interests of the adviser and the firm all too frequently misaligned with the best interests of the customer.    So the Labor Department's conflict of interest proposal has a singular goal: to align the best interests of the customer with those of the adviser and the firm. Simply put, we want to create an enforceable best-interest standard so that you can have certainty that your financial adviser is working for you first and foremost.    This proposed rule is a product of lengthy, exhaustive outreach. It includes extensive consultation with the SEC, whose expertise has been invaluable as we have developed this rule. Our outreach to the SEC was not a box-checking exercise, it was critical to the rulemaking and it has helped us make a better proposal.    The proposed rule was also following very significant outreach to representatives of consumer groups, the financial services industry and members of Congress. And we appreciate that input that we have gotten throughout the process.    We have established a lengthy comment process of roughly 140 days, which is one of the longest that we have done in a rule, and for good reason.    Throughout this outreach process, I have been very heartened by the calls that we have gotten from many in the industry to establish a best-interest standard.    So for instance, John Thiel, the head of Merrill Lynch Wealth Management, said, ``Since 2010, we have supported the notion of a consistent and higher standard for every professional that deals with the American investor and those that deal with retirement plans. As an organization, we have provided input to policymakers in Washington. We believe we were heard and we will have an additional opportunity to comment.''    The CEO of Bank of America, Brian Moynihan, said, and I quote: ``We believe that doing what is in the best interests for your customers is absolutely the right thing to do. We have been clear that we see the industry moving and we expect to help it move there.''    There is an increasing recognition inside and outside the industry that the best-interest standard is in fact the right way to go. The debate has shifted unmistakably from what problem to an acknowledgment of the problem that people providing investment advice should have an enforceable obligation to look out for their customers' best interests.    And now the important questions that remain, and I agree with the Ranking Member, is how do we operationalize this standard?    And we look forward to the feedback and constructive dialogue that we continue to have so that we can get ideas on how best to operationalize this because leaders of large and small businesses alike have recognized not simply that this is the right thing to do, but it is the smart thing to do.    Jack Bogle, the founder of Vanguard, said, and I quote: ``For as long as I can remember I have pressed for a federal standard of fiduciary duty, a simple rule that stresses that clients come first.''    Mr. Bogle has 64 years in the business and he said, ``I learned early on that when you put your customers' interests first it is great for your customer and it is great for business.''    He has retired, but Vanguard's competitiveness has not.    And while Jack Bogle, who built Vanguard, understands the importance of acting in the best interests of his clients, so do many small- and medium-sized companies.    Wealthfront is a relatively small investment adviser just shy of four years old. And they wrote to us recently to say, and I quote: ``We were built from the ground up to operate under the full fiduciary standard despite serving small accounts and charging incredibly low fees. Thankfully, our effort to serve the small investor has been rewarded with unprecedented growth. Wealthfront is living proof that not only is it possible to provide fiduciary service at low cost to small investors nationwide, but also that the market greatly rewards these efforts.''    This is what we are hearing from members of the industry. And what we are hearing is that the rule is good news for both American workers and retirees and everyone who is leaving a job and deciding what to do with their hard-earned money.    But ultimately, it is not about simply the firms, it is about the people. The middle-class life rests on five pillars: fair pay, a roof over your head, health care for your family, education for you and your children, and the ability to save for you and your family's retirement.    I totally agree with you, Mr. Chairman, that we have a retirement crisis. We have got to save more. And what we are trying to do in this rule is to ensure that the hard-earned money that people have saved throughout their career can go to them and at the same time making sure that we have an industry that continues to be able to do good and do well. You can do both.    And I look forward to hearing your questions and concerns. And I look forward to continuing the outreach because it has been a very, very constructive process for the two years, or roughly two years, I have been in this job. I have appreciated the input from many members of this Committee who have helped us frame an even better rule.    So thank you, Mr. Chairman, for your courtesy. And I look forward to your questions and those of everyone on the Committee.</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t xml:space="preserve">    Chairman Roe. I thank the gentleman for yielding.    Next is Chairman Kline.</t>
   </si>
   <si>
-    <t>Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kline. Thank you, Mr. Chairman.    Thank you, Mr. Secretary, for being here.    I think there is nobody probably in this room and certainly up here who doesn't agree that financial advisers ought to be acting in the best interests of their client. But the rule doesn't simply say that. The rule is in fact quite complex.    Dr. Roe lifted up the book and it is about this thick. And clearly, there is a lot of confusion.    And so I am not as thrilled as the Ranking Member that you have extended the comment period by 15 days; 45 would have been better. But the more discussion we have, I think, the better because right now I am afraid the rule is going to prove to be pretty complex and in some cases may be unworkable.    Mr. Secretary, you said that you have had extensive outreach to the SEC. And since you are here under oath, I have got to assume that is a true statement, but it may depend upon what ``extensive'' and what ``outreach'' means.    As you know, Mr. Secretary, going back to March 4, the Committee has asked for documents and communications to verify that substantive coordination has occurred between the Department of Labor and the Securities and Exchange Commission. And after months of virtually no response, less than 48 hours before this hearing the Department produced 827 pages of mostly scheduling emails, Outlook calendar items, and similar things.    And this leads us to believe the Department has still not provided a complete response to our inquiry.    So here are the questions. Do these 827 pages represent the entirety of the written communications between DOL and the SEC?</t>
   </si>
   <si>
@@ -181,9 +169,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And thank you, Mr. Secretary, for being here today.</t>
   </si>
   <si>
@@ -208,9 +193,6 @@
     <t>400643</t>
   </si>
   <si>
-    <t>Virginia Foxx</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Foxx. Morning.</t>
   </si>
   <si>
@@ -241,9 +223,6 @@
     <t>412585</t>
   </si>
   <si>
-    <t>Mark Pocan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you very much, Mr. Chairman.    And thank you, Mr. Secretary, for being with us this morning.</t>
   </si>
   <si>
@@ -289,9 +268,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -367,9 +343,6 @@
     <t>412312</t>
   </si>
   <si>
-    <t>Gregorio Kilili Camacho Sablan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sablan. Thank you very much, Mr. Chairman.    And Mr. Secretary, it is always good talking to you and having conversations.    I have some concerns in addressing, how best do you operationalize this best-interest standard in my district?    Coming into this room, I thought we had nine securities investment or advisers, now I only count that we may have actually four, three with each one of the banks and one, the gentleman that is a dealer or agent for Fidelity. And so you can see how small the market is for us.    And how do we do this, how do we bring this very well-intentioned best-interest standard, which I like very much, without forcing these investment agents, at least the one with Fidelity, to stop doing business in the Northern Marianas with forcing them to close shop because the costs of managing this government oversight is going to go higher, of course, when his clients aren't very large?    And I would like to maybe work with your office. And maybe if I understand, maybe--I am sure you may have an answer for this, I don't know. But because we are so small and I can tell, I can probably count on my two hands how many people have investments with firms that are, you know, housed in Honolulu probably and they have the means to get up and fly there and be there.    But for those who are the smallest investors, retirement savings investors, there is very little. And I would like to see how would we manage these small accounts.</t>
   </si>
   <si>
@@ -403,9 +376,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you.    Thank you, Mr. Secretary. Thanks for being here.</t>
   </si>
   <si>
@@ -478,9 +448,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman. Thank you for holding this hearing on this really important topic.    And we talk a lot about retirement security. And I have to tell you, I have had a lot of meetings about this issue.    I am particularly proud of my state. The legislature just passed the Oregon retirement security bill which is a voluntary plan to make an IRA available to all Oregonians without access to a retirement plan at their workplace, which once again our state is showing some leadership there on this really important issue.    This is a fascinating, but complex issue and I am fairly new to it, even though I did some work years ago as a lawyer in securities. So to try to understand the whole jurisdictional issue with when the Department of Labor is involved because it is ERISA and when state law is preempted and then the SEC involvement.    And I am glad you are working with the SEC. And I appreciate your comments about telling the committee about all of those discussions and correspondence.    So I wanted to just emphasize how important this is to our constituents, particularly middle- and low-income families in my district and all of our districts. It is important for them to have access to financial advice that they can trust.    And again, I have had a lot of meetings about this. I have also heard from people in the industry who are very concerned about the implementation. We have made progress with the consensus now that the best interest is what the industry is saying they agree to and it is the implementation that appears to be the issue.    I have also heard from AARP, NAACP, National Council of La Raza all supporting the rule. And they have really made consumer rights a centerpiece of their advocacy. And I have a background in consumer protection and I very much appreciate that.    And to me, it seems like we have the same goal here, to make sure that the people who are getting advice are getting advice that they can trust and that it is in their best interests.    So let's talk a little bit about some of the issues that have been raised. Particularly, will you please clarify because I have heard over the past couple of years it is going to be a big problem because we won't be able to sell any products on commissions? That has been clarified, correct?</t>
   </si>
   <si>
@@ -514,9 +481,6 @@
     <t>412446</t>
   </si>
   <si>
-    <t>Joseph J. Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chairman.    Thank you, Mr. Secretary, for being here today.</t>
   </si>
   <si>
@@ -565,9 +529,6 @@
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman.    Welcome, Mr. Secretary.    You mentioned a few times in your testimony that this is a simple proposal that allows for flexibility to reflect not only different business models, but also the innovation and technological advances some in the industry have made and continue to make.    How do you envision the industry reacting in terms of product offerings and tech-based solutions? And how will this help small savers?</t>
   </si>
   <si>
@@ -610,9 +571,6 @@
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -685,9 +643,6 @@
     <t>412540</t>
   </si>
   <si>
-    <t>Luke Messer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Messer. Thank you, Mr. Chairman.    Thank you, Mr. Secretary.    You use the phrases ``small savers'' and ``first-time investors,'' and that is what we are here to talk about today in this hearing.    I represent a district full of those people. I represent 19 counties in east, central and southeastern Indiana, working communities, people that work in agriculture and manufacturing.    I am also the product of a single-parent family. My mom just retired from the Delta faucet factory there. She raised my brother and me on her own. She was somebody that couldn't really afford to save until she was well into her 40s and falls in the category here.    I think one of the things we have got to remember as policymakers is we aren't just accountable for our intentions, we are also accountable for our results. And we could bring forward rules with the best of intentions designed to protect people that, in the end, actually hurt the very people we are trying to protect.    I think part of the challenge of threading the needle here that you have talked about is we have looked at other countries that have tried to do it and not had much success. And so we need to be careful that with the best of intentions of protecting these investors we don't end up making their situation much worse.    Of course, the best way to avoid that is by coordinating with others who have knowledge in the field.    And I know Chairman Kline talked to you a little bit about your efforts to coordinate with the SEC. We are, of course, concerned that we haven't gotten the documentation from you that shows that coordination also at the Department of Labor.    I want to give you a quote and ask you to respond to it, Secretary Perez. In February of this year, SEC Commissioner Daniel Gallagher said the follow, ``The DOL has not formally engaged the commissioners, at least not this commissioner, on its fiduciary rulemaking process and the impact it may have on investors. And despite public reports of close coordination between the DOL and the SEC staff, I believe this coordination has been nothing more than a check-the-box exercise by the DOL designed to legitimize the runaway train that is their fiduciary rulemaking.''    Secretary Perez, is this true?</t>
   </si>
   <si>
@@ -730,9 +685,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. I thank the chairman for yielding, as well as for Secretary Perez for your presence and your leadership.    The rule that we are discussing today was first put forth in 2010. Is that correct?</t>
   </si>
   <si>
@@ -784,9 +736,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Thank you very much.    My first question is with regard to fraternal organizations, okay? Fraternal organizations, okay?</t>
   </si>
   <si>
@@ -835,9 +784,6 @@
     <t>400179</t>
   </si>
   <si>
-    <t>Rubén Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Roe.    Can you hear me?    I want to thank you and Ranking Member Polis for holding this important hearing.    But I especially want to thank Secretary Perez for being here and for the work you and your staff have been doing in the conflicts of interest rule re-proposal.    Subcommittee Chairman Roe and I co-chair a Senior Citizens Caucus, which covers financial literacy to help these senior citizens make good financial choices in their retirement years.    So this rule that we are discussing is of great interest to both of us as chairs and to many members on both sides of the aisle, as I have heard the questions.    I think that we want to ensure access to advice at a very low administrative cost as federal employees which number probably several million get a quarter of 1 percent administrative costs for investing our Thrift Savings program investment and retirement portfolio.    I think that I really paid attention to Congressman Rick Allen from Georgia, giving us his example of investors losing a large amount back in December 2007 and the following year, 2008, which is the time of the worst recession in 50 years.    And I enjoyed listening to how you handled that. And many of us did the same. We stayed in the market.    But I will say to you, Mr. Secretary, that sometimes older men and women have good advice, simple. I remember hearing one tell me, just remember that you buy low and sell high. And so I did that. On the first week of January of 2008, I called and I changed my particular investment portfolio into Treasuries 100 percent. And that is the best thing that I could have done.</t>
   </si>
   <si>
@@ -871,9 +817,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    Secretary, thank you for being here.    Mr. Secretary, I have to be quite honest. I am going to preface my questions by saying that I am deeply disturbed by this and not in favor of this at all. I will just go ahead and tell you.    But, let me ask you something. The premise for your action here seems to be that you are saying that conflicts of interest have resulted in higher fees for those that are in IRAs than are in 401(k)s and that it is because of these conflicts of interest that it has resulted in the higher fees.    Yet the Investment Company Institute has discredited that number and said that isn't true, said that it has only increased at .16 percent and that indeed can be attributed to the fact that they get more advice and that they get a higher level of service.    So if your premise is that the conflicts of interest are the reason why we need to have contracts, and yet we have the Investment Company Institute who disputes that, what is your premise then?</t>
   </si>
   <si>
@@ -907,9 +850,6 @@
     <t>400364</t>
   </si>
   <si>
-    <t>Robert C. "Bobby" Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you.    Mr. Secretary, what is wrong with the free market just taking place and people being able to get what it can out of transactions?</t>
   </si>
   <si>
@@ -1000,43 +940,28 @@
     <t xml:space="preserve">    Chairman Roe. Thank you so much.    It is now my pleasure to invite our second panel to the witness table, please.    It is now my pleasure to introduce our distinguished panel of witnesses for the second panel. Our first witness is Mr. Kent Mason who is a partner of Davis &amp; Harman LLP specializing in employee benefit matters. Prior to entering private practice, Mr. Mason held positions at the Joint Committee on Taxation and in the Treasury Department. He represents a broad cross-section of firms that offer and service employee benefit plans.    Mr. Jack Haley is the executive vice president, Professional Services Group, with Fidelity Investments. He has been with the company more than 30 years and currently serves on its executive board. Mr. Haley also currently serves as president and chairman of the board of directors of Fidelity Management Trust Company.    Mr. Dennis Kelleher is the president and chief executive officer of Better Markets, Incorporated, a nonprofit organization that promotes the public interest in the capital and commodity markets. Previously he has held several senior-staff positions in the United States Senate and was a partner with the law firm of Skadden, Arps, Slate, Meagher &amp; Flom.    Dr. Brian Reid is a chief economist at the Investment Company Institute where he leads the institute's research departments. Previously, Dr. Reid was a staff economist at Monetary Affairs Division of the Federal Reserve Board.    Lastly, Mr. Dean Harman is the founder and managing director of Harman Wealth Management. He has over 17 years of experience working with individuals and families with planning and investment management. Mr. Harman is a member of the Board of Directors of the Financial Services Institute.    Mr. Mason, you are recognized--well, before I start let me swear you in.    [Witnesses sworn.]    Let the record reflect the witnesses answered in the affirmative.    And you may take your seat.    Before I recognize you to provide your testimonies, let me briefly explain our lighting system. You have five minutes to present your testimony. When you begin, the light in front of you will turn green. When one minute is left, the light will turn yellow. When your time has expired, the light will turn red. At that point, I will ask you to wrap up your remarks as best as you are able.    And members will each have five minutes to ask questions.    Mr. Mason, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>Mason</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mason. Thank you, Mr. Chairman.    My name is Kent Mason. I am a partner with the law firm of Davis &amp; Harman and I have worked in the employee benefits area for over 30 years.    I want to thank the subcommittee for inviting me here to testify. I am testifying today on my own behalf based on extensive discussions with plan sponsors as well as numerous financial institutions.    Before turning to the meat of my testimony, I want to mention three key points. And this first one echoes, I think, what you have said here, Mr. Chairman.    The industry is absolutely fine with a best-interest standard and has been for the past four and a half years, you know? I mean, every time somebody says, well, now, there is concern from the industry, there hasn't been for four and a half years.    The concern has always related to the prohibited transaction rules. And these are the rules that make certain business models effectively illegal, such as the brokerage model; and those are the business models that provide assistance to low- and middle-income individuals and to small businesses. So that has been the issue for four and a half years and it has really not been addressed.    The second point I want to hit is, even aside from the advice issue, we have had a lot of talk this morning about education. I just want to make one thing clear. The 2015 proposal significantly cuts back on permissible financial investment education. 2010 preserved financial education; 2015 explicitly cuts back permissible financial education.    And that leads to the third point I want to hit before going to the meat of my testimony, which is I think there has been a perception that this has been an evolution. That we took the 2010 proposal and we sort of updated it and made some progress and we got to 2015 and we are going to make some more progress.    In actuality, there is a growing consensus among the industry that the 2015 proposal, and this is detailed in my written testimony, is actually much worse and much less workable than the 2010 proposal. So the trend line is going in a disturbing direction.    In the meat of my testimony, I would like to focus on two points: the effect of the re-proposal on small accounts, small IRA accounts, and the critical need for legislation.    Small accounts, there are two ways that IRA accounts can get assistance. One is the brokerage model with commissions paid and payments from the mutual funds, such as marketing fees or record keeping fees.    As I explain in detail in my written testimony, as a practical matter the proposal makes the brokerage model illegal. So really, that model is off the table.    The second way to provide investment assistance is through something called an advisory model. Now, if somebody comes to me and says I want to enter into an advisory relationship, what I owe that person is 24/7/365 fiduciary responsibility. I owe them around-the-clock fiduciary responsibility.    In exchange for that, what I get is a flat fee like 1 percent of pay. And that 1 percent of pay, the problem is that structure won't work for small accounts. Because if somebody comes to me with a $4,000 IRA, I can't provide around-the-clock, 365-day service for $40 for 1 percent of pay. So that is not available to small accounts.    Oliver Wyman found that because of this analysis, just under their study sample, over 7 million IRAs would lose access to an investment professional and as many as 360,000 fewer IRAs would be opened every year.    And a lot of the reaction to this has been, well, industry will never walk away, they will never walk away from this market. But that is exactly what happened in the United Kingdom under almost an identical rule. The industry went away from small accounts in droves.    And then the question is, when would this happen? Under the current structure, under the current timetable from the Department of Labor, millions of small accounts would be told in the fall of 2016 that their investment adviser can no longer serve them because of new government regulations. October, September of 2016, that is the message that would be delivered.    And just to wrap up, what we need here is bipartisan legislation that establishes a best-interest standard with workable rules, not the unworkable rules that are in this proposal.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Roe. Thank you, Mr. Mason.    Mr. Haley, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>Haley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Haley. Chairman Roe, Ranking Member, members of the Subcommittee, and thank you for the opportunity to testify.    My name is Jack Haley. I am an executive vice president at Fidelity Investments. I oversee a team of investment professionals dedicated to helping employer clients and their workers access a wide variety of high-quality investment products and services to meet their investing needs.    At Fidelity we have the privilege of helping more than 25 million people save for their financial goals and serving more than 14,000 workplace clients, including 8,000 small businesses who offer retirement savings benefits to their workers.    From our roots as a small mutual fund company, Fidelity has grown into a diversified financial services leader. Fidelity takes seriously the responsibility of helping employers set up and offer competitive retirement savings plans.    I appreciate the opportunity to share our experiences helping small businesses and express our concerns about the Labor Department's proposal.    First, I want to answer a call from the Department of Labor by stating directly up front Fidelity acts in the best interests of its clients and investors. We support a best interest fiduciary standard, but the details matter.    We are proud of the services, products, and choices we provide our customers, but we fear that this proposed regulation will severely restrict our ability to continue providing this assistance to small-business workers.    While the framework of the proposal would theoretically allow service models to remain when acting in the best interests of customers, its so-called best-interest contract exemption contains so many problematic conditions that the rule is unworkable as drafted. Labor's proposal effectively prohibits access to affordable financial help, even when it is in the interests of the investor.    We believe a balanced approach where savers can be protected by the best-interest standard and continue to have access and choice in their retirement products, services, and providers.    We look forward to continuing to work with the members of Congress and the administration to ensure that this balance is reached.    Small businesses remain the lifeblood of our economy. These hardworking entrepreneurs and businesspeople bring significant expertise and passion to their work. We see their desire to offer competitive, high-quality retirement savings benefits to attract and keep a highly skilled workforce.    Not surprisingly, with all they have to do to manage their businesses, there is little time, expertise, or desire to manage their retirement savings plans. That is why small businesses turn to us. We provide a range of critical services, from helping companies understand and select the right savings vehicles, to providing all of the critical functions to keep a plan running smoothly, including record keeping, compliance testing and reporting, selection and ongoing monitoring of investment, and, most importantly, education and guidance for their employees.    Unfortunately, the DOL proposal would specifically prohibit service providers from assisting small businesses. The result would have a devastating impact on retirement coverage and savings for millions of workers employed by small businesses across the country.    I reiterate, we support a best-interest fiduciary standard, but without exemptive relief from ERISA's strict rules Fidelity would be prohibited from providing critical services to small-business clients, even when we provide help that is in their best interest.    Just as important as our small-business services is the critical education and guidance we provide to their employees. The proposed rule jeopardizes many of the ordinary, everyday conversations we have with job changers, even if the conversation is merely educational where we do not discuss investments or advice.    We are also able to help workers prepare for retirement by discussing potential product and service offerings with them. The proposal would require workers to sign a contract before a conversation would even occur. Each customer would have to have a contract with each of our phone reps, which number in the thousands, in order to get answers to basic questions.    In addition to this new contract, the rules also include burdensome, confusing disclosure requirements that do not actually disclose potential conflicts. These requirements are not in anyone's best interests and must be addressed.    These are just a few examples of the critical services we provide to small businesses and employees and how the proposal would harm the very people the rule intends to protect.    We believe a balanced approach providing investors with fiduciary best-interest protections, retaining existing service models, is achievable.    We look forward to working with you to make the necessary changes to allow individual retirement savers and businesses offering retirement plans to have choice and access to the products and services they need.    Let me close by stating unequivocally that we support a best-interest fiduciary standard crafted in a way that allows workers choice and access to the services they need and desire.    Thank you, and I am happy to take questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Roe. Thank you, Mr. Haley.    Mr. Kelleher, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>Kelleher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kelleher. Chairman Roe and members of the Subcommittee, thank you for the invitation to Better Markets to testify today.    I would like to discuss just a few points that are detailed in my written testimony.    First, it is unacceptable that brokers and others today are allowed to put their economic interests above their clients' best interests. That conflict of interest is costing Americans saving for retirement tens of billions of dollars every year.    Make no mistake about it. That is what is at stake here and ending that is what the Department of Labor's proposed rule is all about.    Today, tens of millions of hardworking Americans are struggling to make ends meet, provide for their families, and save a little for retirement. Figuring out how to invest those retirement savings forces many to seek investment advice from a broker, but that broker can put his or her economic interests above the client's best interests.    What does that mean?    If there are two similar investments but one pays the broker 5 percent and the other pays the broker 1 percent, then it is perfectly legal today for that broker to advise the client to invest in the product that will cost his client five times what it should be.    Making matters worse, often the products that pay the brokers more don't perform as well as similar products. That means not only has the client paid five times more up front, but he or she is also stuck with a product that doesn't perform as well over time. The client is doubly victimized.    As famed Vanguard founder Jack Bogle has called it, they are victimized by the tyranny of compounding costs.    That is what is happening every day in this country. It is costing Americans tens of billions of hard-earned dollars.    For example, the Department of Labor has detailed that these conflicts in the IRA arena only are costing savers as much as $430 billion over 10 years or $43 billion a year.    Second, the rule governing retirement investment advice is 40 years old; it is outdated and incapable of properly protecting workers and retirees in light of the dramatic and far-reaching changes in the way Americans now have to save for retirement.    When this rule was written 40 years ago, almost all retirement savings were in defined benefit plans which were run by employers and managed by investment professionals with fiduciary duties. Forty years ago, 401(k)s did not exist and IRAs had just been created. Today, 40 years later, 401(k)s have gone from zero dollars to $4.6 trillion and IRAs have gone from $3 billion to $7.4 trillion.    By 2012, 90 million Americans, more than two-thirds of all workers with retirement plans, had individual contribution plans. They are all forced to figure out their own retirement investments. This is a monumental and mind-boggling shift from 40 years ago, and yet the rule has remained frozen in time as if nothing has changed when everything has changed.    As the world has changed, so, too, must the rule change. And the time is now for the Department of Labor to act. It has considered this proposal for years. It has sought and received input from all stakeholders, including, in particular, industry. It has addressed many of the industry's concerns and incorporated many of their suggestions into the proposal, including their priorities.    Yet they continue to object and the reason is clear: They simply do not want to change the status quo and work under a simple principle, a rule that says you must put your clients' interests first.    The industry's complaints, however, boil down to a false choice, either brokers get to put their interests above their clients' best interests or they won't serve those clients. That is a false choice.    The real choice is this: Let the DOL act to protect 100 million workers and retirees across this country or continue letting brokers and other advisers put their interests ahead of their clients'. That is the real choice.    If some brokers don't want to do that or feel that they can't make enough money doing that, then there are plenty of retirement investment advisers who are more than willing to put the clients' interests first and, frankly, today there are tens of thousands of advisers doing that right now across the country with fiduciary duties, low cost, best interest of the client, serving them today, literally hundreds of thousands.    In conclusion, we all agree we have a very serious retirement crisis in this country. Not enough people are saving for retirement and too many of those that do aren't saving enough, as the chairman said in his opening statement.    They need to keep every penny in their retirement accounts and not in their brokers' pockets. That is why updating a 40-year-old rule is so important and why putting the clients' best interests first is imperative.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Roe. Thank you, Mr. Kelleher.    Dr. Reid, you are recognized.</t>
   </si>
   <si>
-    <t>Reid</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Reid. Thank you, Chairman Roe and Ranking Member.    I am Brian Reid, chief economist of the Investment Company Institute, a leading global trade association representing mutual funds and other regulated funds in the United States and around the globe.    I am here today to discuss the economic analysis that the Department of Labor uses to justify its proposed rule defining fiduciary duty for retirement advice and services.    I have spent a lot of time on the DOL's regulatory impact analysis. I regret to say that it is fatally flawed. Its analysis is an exercise in storytelling, crafted more to support the Department's agenda than to measure accurately the proposal's impact on retirement savers.    In fact, the economic analysis raises the question of whether the DOL fully understands the market for retirement advice.    The DOL justifies its proposed rule by claiming that this market suffers from a substantial market failure resulting in serious harm for retirement savers who invest through broker dealers. But the Department's assertions don't stand up when tested against actual data and experience. Even worse, the DOL's proposal could actually have significant net social harm.    I have five points to explain why.    First, the DOL's analysis is flawed when it claims that retirement savers will lose as much as $1 trillion over the next 20 years without its rule. The DOL reaches this number by arguing that brokers who are paid commissions through front-end loads on mutual funds are directing their investors into funds that under-perform.    But a simple test, with data drawn directly from the market since 2007, shows just the opposite. Investors who own mutual funds with front-end loads actually bought funds that outperformed, not underperformed, the average return for their fund category.    This one finding eliminates almost all of the rationale that the DOL uses to justify its proposal.    Second, the DOL ignores market realities and the fact that investors may end up paying more, not less for advice under its proposal. The DOL predicts that its rule will drive down brokers' fund commissions by almost two-thirds, but will not drive brokers from the retirement market. That seems highly unlikely to me.    Furthermore, the DOL ignores the costs that investors will face if brokers do exit the market. The DOL estimates that investors are paying up to 28 basis points a year in front-end loads, but advisers charge, on average, almost four times as much for alternative, fee-based accounts.    If the DOL rule forces savers into fee-based accounts, savers may end up paying more, not less.    Third, none of the academic studies that the DOL uses addresses the core question: whether an investor's performance is different when her adviser is a fiduciary compared to when her adviser isn't a fiduciary. Thus, the DOL does not actually measure and cannot measure, based on these studies, whether an investor will get better results using a fiduciary adviser.    Fourth, the DOL fails to identify and analyze the significant harm to savers that could likely result from this proposal. With the new burdens created by the DOL's proposed rule, the high minimum balances typically required for fee-based accounts, it is inevitable that many IRA investors would no longer be able to obtain advice at all. Retirement savers will be worse off if they do not have access to assistance and advice.    Finally, data show that IRA investors are concentrated in lower-cost funds, not higher-cost funds. The White House Council of Economic Advisers has widely promoted an estimate that IRA investors lose $17 billion a year through under-performance largely stemming from excess fees.    The CEA report uses a hypothetical calculation to argue that, on average, IRA investors pay 1 percentage point a year more in fund fees than do 401(k) investors.    If we put actual fund data into the CEA's calculation, the difference between what IRA investors pay and what 401(k) investors pay is 85 percent less than what the CEA assumes.    Now, let me be clear. The ICI has long supported the principle behind the DOL proposal that financial advisers should act in the best interests of their clients when they offer personalized investment advice. Unfortunately, the DOL's proposed rule is hopelessly complex, confused, and unworkable.    As the subcommittee recognizes, this issue is vitally important to American workers and their families. Research by ICI and others show that the U.S. retirement system is working to help deliver a secure future for millions of Americans. But those successes depend on workers' access to advice and services.    Any policy that impairs retirement savers' ability to get the help that they need will significantly harm the prospects of millions of workers. Unfortunately, the DOL proposal will do just that.    I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Roe. Thank you, Dr. Reid.    Mr. Harman, you are recognized for five minutes.</t>
-  </si>
-  <si>
-    <t>Harman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Harman. Good afternoon, Mr. Chairman, Ranking Member Polis, and members of the Subcommittee.    I am Dean Harman, founder and managing director of Harman Wealth Management in The Woodlands, Texas.    I am here representing the Financial Services Institute. FSI advocates on behalf of independent financial advisers and independent financial services firms. FSI is a strong supporter of a uniform fiduciary standard. But, unfortunately, the Department of Labor's proposal is unworkable, complex, and costly.    Let me make it plain. This proposal will harm retirement investors.    Let me start by sharing one of the ways this proposal is unworkable. For a client to be able to pay for my services using a commission model, my firm would have to comply with the requirements of the best-interest contract exemption known as     BICE requires that we give clients an estimate of all investment costs for one, five, and 10-year periods. In order to do this, I would need to predict investment performance. This will put me in direct conflict with SEC and FINRA rules.    These projections may also create unrealistic expectations for investors.    The proposal is also too complex. For example, BICE requires that firms maintain a machine-readable public website and update it quarterly. This website would disclose compensation received by the adviser, the firm, and any affiliates for every investment product sold.    In the independent investment model, financial advisers have access to a wide variety of investment options. All of these investment products have unique pricing structures. Every single mutual fund family may offer as many as 500 or more versions of its fund. Compiling, presenting, and maintaining the required Internet disclosures would be a massive undertaking.    This complexity of the project could lead to inadvertent errors which may result in litigation. More importantly, the complexity may confuse investors and discourage them from saving for retirement.    This proposal is also too costly for investors seeking retirement services. They may encounter high costs as financial advisers are faced with a mountain of regulatory burdens that lead advisers to institute or raise asset minimums on retirement accounts.    Because of this, investors of moderate means will find it difficult to gain access to valuable retirement advice and products. I do not want to turn away a potential client who needs my advice, but that will be the consequence of this proposal.    That last point is so important. Let me give you an example from my own practice. I manage about $200 million in assets for 618 clients. Of those total assets, $10 million are held by 331 clients with an average balance of $30,000. These clients are mainly lower net worth, elderly, or young professionals just starting out.    For these individuals, an advisory fee model does not make sense. A commission-based model is appropriate for them because it eliminates the out-of-pocket costs and provides a way to pay for the advice, products, and services that these clients need.    I want to ensure that any written rule by the Department of Labor will make it easier for these investors to continue receiving high-quality retirement services from a trusted financial adviser, but this proposal fails them.    In conclusion, FSI supports a uniform fiduciary standard. We will continue to work with the Department of Labor to protect investors and expand access to retirement advice. Unfortunately, the current proposal is unworkable, it is complex, and it is costly.    Thank you, and I look forward to any questions that you may have.</t>
@@ -1804,11 +1729,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1830,11 +1753,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1854,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1882,11 +1801,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1906,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1934,11 +1849,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1958,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1986,11 +1897,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2010,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2038,11 +1945,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2062,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2090,11 +1993,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2114,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2142,11 +2041,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2166,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2192,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2218,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2244,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2270,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2296,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2322,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2348,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2374,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2402,11 +2281,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2426,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2452,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2478,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2504,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2530,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2556,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2582,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2608,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2634,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2660,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2686,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2714,11 +2569,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2738,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2764,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2790,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2816,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2842,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>55</v>
-      </c>
-      <c r="H42" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2868,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2896,11 +2737,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2920,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2946,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2972,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2998,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3024,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
         <v>63</v>
-      </c>
-      <c r="G49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3050,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3076,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3102,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3130,11 +2953,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3154,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" t="s">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3180,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3206,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" t="s">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3232,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3258,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" t="s">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3284,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3310,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
         <v>75</v>
-      </c>
-      <c r="H60" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3336,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3362,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" t="s">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3388,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3414,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" t="s">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3440,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3466,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" t="s">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3492,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3520,11 +3313,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3544,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3570,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3596,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3622,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3648,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3674,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3700,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
+        <v>83</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
         <v>90</v>
-      </c>
-      <c r="G75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3726,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3752,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3778,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3804,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3830,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3856,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3882,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3908,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3934,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3960,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3986,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4012,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4038,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4064,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
-      </c>
-      <c r="G89" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4090,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4116,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>90</v>
-      </c>
-      <c r="G91" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4144,11 +3889,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4168,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
-      </c>
-      <c r="G93" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4194,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4220,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>116</v>
-      </c>
-      <c r="G95" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4246,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4272,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
-      </c>
-      <c r="G97" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4298,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4324,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>116</v>
-      </c>
-      <c r="G99" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4350,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4376,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>116</v>
-      </c>
-      <c r="G101" t="s">
+        <v>108</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>117</v>
-      </c>
-      <c r="H101" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4404,11 +4129,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4428,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
-      </c>
-      <c r="G103" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4454,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4480,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
-      </c>
-      <c r="G105" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4506,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4532,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>128</v>
-      </c>
-      <c r="G107" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4558,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4584,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>128</v>
-      </c>
-      <c r="G109" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4610,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4636,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
+        <v>119</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
         <v>128</v>
-      </c>
-      <c r="G111" t="s">
-        <v>129</v>
-      </c>
-      <c r="H111" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4662,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4688,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>128</v>
-      </c>
-      <c r="G113" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4714,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4740,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>128</v>
-      </c>
-      <c r="G115" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4766,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4792,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>128</v>
-      </c>
-      <c r="G117" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4818,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4844,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>128</v>
-      </c>
-      <c r="G119" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4870,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>128</v>
-      </c>
-      <c r="G120" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4896,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4922,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>128</v>
-      </c>
-      <c r="G122" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4948,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4974,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>128</v>
-      </c>
-      <c r="G124" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5002,11 +4681,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5026,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>153</v>
-      </c>
-      <c r="G126" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5052,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5078,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>153</v>
-      </c>
-      <c r="G128" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5104,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5130,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>153</v>
-      </c>
-      <c r="G130" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5156,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5182,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>153</v>
-      </c>
-      <c r="G132" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5208,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5234,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>153</v>
-      </c>
-      <c r="G134" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5262,11 +4921,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5286,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>165</v>
-      </c>
-      <c r="G136" t="s">
-        <v>166</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5312,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5338,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>165</v>
-      </c>
-      <c r="G138" t="s">
-        <v>166</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5364,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5390,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>165</v>
-      </c>
-      <c r="G140" t="s">
-        <v>166</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5416,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5442,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>165</v>
-      </c>
-      <c r="G142" t="s">
-        <v>166</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5468,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5494,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>165</v>
-      </c>
-      <c r="G144" t="s">
-        <v>166</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5520,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5546,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
+        <v>154</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
         <v>165</v>
-      </c>
-      <c r="G146" t="s">
-        <v>166</v>
-      </c>
-      <c r="H146" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5572,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5598,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>165</v>
-      </c>
-      <c r="G148" t="s">
-        <v>166</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5626,11 +5257,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5650,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5676,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>182</v>
-      </c>
-      <c r="G151" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5702,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5728,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>182</v>
-      </c>
-      <c r="G153" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5754,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5780,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>182</v>
-      </c>
-      <c r="G155" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5806,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5832,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>182</v>
-      </c>
-      <c r="G157" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5858,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5886,11 +5497,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5910,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5938,11 +5545,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5962,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
+        <v>170</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
         <v>182</v>
-      </c>
-      <c r="G162" t="s">
-        <v>183</v>
-      </c>
-      <c r="H162" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5990,11 +5593,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6014,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>197</v>
-      </c>
-      <c r="G164" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6040,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6066,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>197</v>
-      </c>
-      <c r="G166" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6092,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6118,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>197</v>
-      </c>
-      <c r="G168" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6144,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6170,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>197</v>
-      </c>
-      <c r="G170" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6196,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6222,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>197</v>
-      </c>
-      <c r="G172" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6248,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6274,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>197</v>
-      </c>
-      <c r="G174" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6300,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6326,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
+        <v>184</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
         <v>197</v>
-      </c>
-      <c r="G176" t="s">
-        <v>198</v>
-      </c>
-      <c r="H176" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6352,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6378,13 +5951,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>197</v>
-      </c>
-      <c r="G178" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6404,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6430,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>197</v>
-      </c>
-      <c r="G180" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6458,11 +6025,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6482,13 +6047,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>197</v>
-      </c>
-      <c r="G182" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6510,11 +6073,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6534,13 +6095,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>19</v>
-      </c>
-      <c r="G184" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6560,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6586,13 +6143,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6614,11 +6169,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6638,13 +6191,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>222</v>
-      </c>
-      <c r="G188" t="s">
-        <v>223</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6664,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6690,13 +6239,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>222</v>
-      </c>
-      <c r="G190" t="s">
-        <v>223</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6716,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6742,13 +6287,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>222</v>
-      </c>
-      <c r="G192" t="s">
-        <v>223</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6768,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6794,13 +6335,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6820,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>222</v>
-      </c>
-      <c r="G195" t="s">
-        <v>223</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6846,13 +6383,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6872,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>222</v>
-      </c>
-      <c r="G197" t="s">
-        <v>223</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6898,13 +6431,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6924,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>222</v>
-      </c>
-      <c r="G199" t="s">
-        <v>223</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6952,11 +6481,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6976,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>237</v>
-      </c>
-      <c r="G201" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7002,13 +6527,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7028,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>237</v>
-      </c>
-      <c r="G203" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7054,13 +6575,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7080,13 +6599,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>237</v>
-      </c>
-      <c r="G205" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7106,13 +6623,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>19</v>
-      </c>
-      <c r="G206" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7132,13 +6647,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>237</v>
-      </c>
-      <c r="G207" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7158,13 +6671,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7184,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>237</v>
-      </c>
-      <c r="G209" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7210,13 +6719,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>19</v>
-      </c>
-      <c r="G210" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7236,13 +6743,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>237</v>
-      </c>
-      <c r="G211" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7262,13 +6767,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>19</v>
-      </c>
-      <c r="G212" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7288,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>237</v>
-      </c>
-      <c r="G213" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7314,13 +6815,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>19</v>
-      </c>
-      <c r="G214" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7340,13 +6839,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>237</v>
-      </c>
-      <c r="G215" t="s">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7366,13 +6863,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>19</v>
-      </c>
-      <c r="G216" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7394,11 +6889,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7418,13 +6911,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>255</v>
-      </c>
-      <c r="G218" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7444,13 +6935,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>19</v>
-      </c>
-      <c r="G219" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7470,13 +6959,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>255</v>
-      </c>
-      <c r="G220" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7496,13 +6983,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>19</v>
-      </c>
-      <c r="G221" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7522,13 +7007,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>255</v>
-      </c>
-      <c r="G222" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7548,13 +7031,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>19</v>
-      </c>
-      <c r="G223" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7574,13 +7055,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>255</v>
-      </c>
-      <c r="G224" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7600,13 +7079,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>19</v>
-      </c>
-      <c r="G225" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7626,13 +7103,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>255</v>
-      </c>
-      <c r="G226" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7652,13 +7127,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>19</v>
-      </c>
-      <c r="G227" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7678,13 +7151,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>255</v>
-      </c>
-      <c r="G228" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7704,13 +7175,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
-      </c>
-      <c r="G229" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7730,13 +7199,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>255</v>
-      </c>
-      <c r="G230" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7756,13 +7223,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>19</v>
-      </c>
-      <c r="G231" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7784,11 +7249,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>12</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7808,13 +7271,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>272</v>
-      </c>
-      <c r="G233" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7834,13 +7295,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>19</v>
-      </c>
-      <c r="G234" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7860,13 +7319,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>272</v>
-      </c>
-      <c r="G235" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7886,13 +7343,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>19</v>
-      </c>
-      <c r="G236" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7912,13 +7367,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>272</v>
-      </c>
-      <c r="G237" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7938,13 +7391,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>19</v>
-      </c>
-      <c r="G238" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7964,13 +7415,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>272</v>
-      </c>
-      <c r="G239" t="s">
-        <v>273</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7992,11 +7441,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>12</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8016,13 +7463,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>19</v>
-      </c>
-      <c r="G241" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8044,11 +7489,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8068,13 +7511,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>284</v>
-      </c>
-      <c r="G243" t="s">
-        <v>285</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8094,13 +7535,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>19</v>
-      </c>
-      <c r="G244" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8120,13 +7559,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>284</v>
-      </c>
-      <c r="G245" t="s">
-        <v>285</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8146,13 +7583,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>19</v>
-      </c>
-      <c r="G246" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8172,13 +7607,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>284</v>
-      </c>
-      <c r="G247" t="s">
-        <v>285</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8198,13 +7631,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>19</v>
-      </c>
-      <c r="G248" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8224,13 +7655,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>284</v>
-      </c>
-      <c r="G249" t="s">
-        <v>285</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8250,13 +7679,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>19</v>
-      </c>
-      <c r="G250" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8276,13 +7703,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>284</v>
-      </c>
-      <c r="G251" t="s">
-        <v>285</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8304,11 +7729,9 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
-        <v>12</v>
-      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8328,13 +7751,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>296</v>
-      </c>
-      <c r="G253" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8354,13 +7775,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>19</v>
-      </c>
-      <c r="G254" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8380,13 +7799,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>296</v>
-      </c>
-      <c r="G255" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8406,13 +7823,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>19</v>
-      </c>
-      <c r="G256" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8432,13 +7847,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>296</v>
-      </c>
-      <c r="G257" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8458,13 +7871,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>19</v>
-      </c>
-      <c r="G258" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8484,13 +7895,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>296</v>
-      </c>
-      <c r="G259" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8510,13 +7919,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>19</v>
-      </c>
-      <c r="G260" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8536,13 +7943,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>296</v>
-      </c>
-      <c r="G261" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8562,13 +7967,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>19</v>
-      </c>
-      <c r="G262" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8588,13 +7991,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>296</v>
-      </c>
-      <c r="G263" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8614,13 +8015,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>19</v>
-      </c>
-      <c r="G264" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8640,13 +8039,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>296</v>
-      </c>
-      <c r="G265" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8666,13 +8063,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>19</v>
-      </c>
-      <c r="G266" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8692,13 +8087,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>296</v>
-      </c>
-      <c r="G267" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8718,13 +8111,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>19</v>
-      </c>
-      <c r="G268" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8744,13 +8135,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>296</v>
-      </c>
-      <c r="G269" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8770,13 +8159,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>19</v>
-      </c>
-      <c r="G270" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8796,13 +8183,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
+        <v>277</v>
+      </c>
+      <c r="G271" t="s"/>
+      <c r="H271" t="s">
         <v>296</v>
-      </c>
-      <c r="G271" t="s">
-        <v>297</v>
-      </c>
-      <c r="H271" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8822,13 +8207,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>19</v>
-      </c>
-      <c r="G272" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8848,13 +8231,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>296</v>
-      </c>
-      <c r="G273" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8874,13 +8255,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>19</v>
-      </c>
-      <c r="G274" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8900,13 +8279,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>296</v>
-      </c>
-      <c r="G275" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8928,11 +8305,9 @@
       <c r="F276" t="s">
         <v>11</v>
       </c>
-      <c r="G276" t="s">
-        <v>12</v>
-      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8952,13 +8327,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>19</v>
-      </c>
-      <c r="G277" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8980,11 +8353,9 @@
       <c r="F278" t="s">
         <v>11</v>
       </c>
-      <c r="G278" t="s">
-        <v>12</v>
-      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9004,13 +8375,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>19</v>
-      </c>
-      <c r="G279" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9032,11 +8401,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>12</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9056,13 +8423,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>19</v>
-      </c>
-      <c r="G281" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9084,11 +8449,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9108,13 +8471,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>19</v>
-      </c>
-      <c r="G283" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9136,11 +8497,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9160,13 +8519,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>19</v>
-      </c>
-      <c r="G285" t="s">
-        <v>331</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9188,11 +8545,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9212,13 +8567,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>19</v>
-      </c>
-      <c r="G287" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9240,11 +8593,9 @@
       <c r="F288" t="s">
         <v>11</v>
       </c>
-      <c r="G288" t="s">
-        <v>12</v>
-      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9264,13 +8615,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>19</v>
-      </c>
-      <c r="G289" t="s">
-        <v>337</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9292,11 +8641,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9316,13 +8663,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>19</v>
-      </c>
-      <c r="G291" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9344,11 +8689,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>12</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9368,13 +8711,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>63</v>
-      </c>
-      <c r="G293" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9394,13 +8735,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>19</v>
-      </c>
-      <c r="G294" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9420,13 +8759,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>63</v>
-      </c>
-      <c r="G295" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9446,13 +8783,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>19</v>
-      </c>
-      <c r="G296" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9472,13 +8807,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>63</v>
-      </c>
-      <c r="G297" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9500,11 +8833,9 @@
       <c r="F298" t="s">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>12</v>
-      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9524,13 +8855,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>296</v>
-      </c>
-      <c r="G299" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9550,13 +8879,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>19</v>
-      </c>
-      <c r="G300" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9576,13 +8903,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>296</v>
-      </c>
-      <c r="G301" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9602,13 +8927,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>19</v>
-      </c>
-      <c r="G302" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9628,13 +8951,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>296</v>
-      </c>
-      <c r="G303" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9654,13 +8975,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>19</v>
-      </c>
-      <c r="G304" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9680,13 +8999,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>296</v>
-      </c>
-      <c r="G305" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9706,13 +9023,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>19</v>
-      </c>
-      <c r="G306" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9732,13 +9047,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>296</v>
-      </c>
-      <c r="G307" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9758,13 +9071,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>19</v>
-      </c>
-      <c r="G308" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9784,13 +9095,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>296</v>
-      </c>
-      <c r="G309" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9810,13 +9119,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>19</v>
-      </c>
-      <c r="G310" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9836,13 +9143,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>296</v>
-      </c>
-      <c r="G311" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9862,13 +9167,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>19</v>
-      </c>
-      <c r="G312" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9888,13 +9191,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>296</v>
-      </c>
-      <c r="G313" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9914,13 +9215,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>19</v>
-      </c>
-      <c r="G314" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9940,13 +9239,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>296</v>
-      </c>
-      <c r="G315" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9966,13 +9263,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>19</v>
-      </c>
-      <c r="G316" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9992,13 +9287,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>296</v>
-      </c>
-      <c r="G317" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10018,13 +9311,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>19</v>
-      </c>
-      <c r="G318" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10044,13 +9335,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>296</v>
-      </c>
-      <c r="G319" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10070,13 +9359,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>19</v>
-      </c>
-      <c r="G320" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10096,13 +9383,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>296</v>
-      </c>
-      <c r="G321" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10122,13 +9407,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>19</v>
-      </c>
-      <c r="G322" t="s">
-        <v>331</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10148,13 +9431,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>296</v>
-      </c>
-      <c r="G323" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10174,13 +9455,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>19</v>
-      </c>
-      <c r="G324" t="s">
-        <v>331</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10200,13 +9479,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>296</v>
-      </c>
-      <c r="G325" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10228,11 +9505,9 @@
       <c r="F326" t="s">
         <v>11</v>
       </c>
-      <c r="G326" t="s">
-        <v>12</v>
-      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10252,13 +9527,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>197</v>
-      </c>
-      <c r="G327" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10278,13 +9551,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>19</v>
-      </c>
-      <c r="G328" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10304,13 +9575,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>197</v>
-      </c>
-      <c r="G329" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10330,13 +9599,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>19</v>
-      </c>
-      <c r="G330" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10356,13 +9623,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>197</v>
-      </c>
-      <c r="G331" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10382,13 +9647,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>19</v>
-      </c>
-      <c r="G332" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10408,13 +9671,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>197</v>
-      </c>
-      <c r="G333" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10434,13 +9695,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>19</v>
-      </c>
-      <c r="G334" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10460,13 +9719,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>197</v>
-      </c>
-      <c r="G335" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10486,13 +9743,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>19</v>
-      </c>
-      <c r="G336" t="s">
-        <v>331</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10512,13 +9767,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>197</v>
-      </c>
-      <c r="G337" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10538,13 +9791,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>19</v>
-      </c>
-      <c r="G338" t="s">
-        <v>331</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10564,13 +9815,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>197</v>
-      </c>
-      <c r="G339" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10590,13 +9839,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>19</v>
-      </c>
-      <c r="G340" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10616,13 +9863,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>197</v>
-      </c>
-      <c r="G341" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10642,13 +9887,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>19</v>
-      </c>
-      <c r="G342" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10668,13 +9911,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>197</v>
-      </c>
-      <c r="G343" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10694,13 +9935,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>19</v>
-      </c>
-      <c r="G344" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10720,13 +9959,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>197</v>
-      </c>
-      <c r="G345" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10746,13 +9983,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>19</v>
-      </c>
-      <c r="G346" t="s">
-        <v>331</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10774,11 +10009,9 @@
       <c r="F347" t="s">
         <v>11</v>
       </c>
-      <c r="G347" t="s">
-        <v>12</v>
-      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10798,13 +10031,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>197</v>
-      </c>
-      <c r="G348" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10826,11 +10057,9 @@
       <c r="F349" t="s">
         <v>11</v>
       </c>
-      <c r="G349" t="s">
-        <v>12</v>
-      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10850,13 +10079,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>153</v>
-      </c>
-      <c r="G350" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10876,13 +10103,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>19</v>
-      </c>
-      <c r="G351" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10902,13 +10127,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>153</v>
-      </c>
-      <c r="G352" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10928,13 +10151,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>19</v>
-      </c>
-      <c r="G353" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10954,13 +10175,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>153</v>
-      </c>
-      <c r="G354" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10980,13 +10199,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>19</v>
-      </c>
-      <c r="G355" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11006,13 +10223,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>153</v>
-      </c>
-      <c r="G356" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11032,13 +10247,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>19</v>
-      </c>
-      <c r="G357" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11058,13 +10271,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>153</v>
-      </c>
-      <c r="G358" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11084,13 +10295,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>19</v>
-      </c>
-      <c r="G359" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11110,13 +10319,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>153</v>
-      </c>
-      <c r="G360" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11136,13 +10343,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>19</v>
-      </c>
-      <c r="G361" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11162,13 +10367,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>153</v>
-      </c>
-      <c r="G362" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11188,13 +10391,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>19</v>
-      </c>
-      <c r="G363" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11214,13 +10415,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>153</v>
-      </c>
-      <c r="G364" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11240,13 +10439,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>19</v>
-      </c>
-      <c r="G365" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11266,13 +10463,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>153</v>
-      </c>
-      <c r="G366" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11292,13 +10487,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>19</v>
-      </c>
-      <c r="G367" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11318,13 +10511,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>153</v>
-      </c>
-      <c r="G368" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11344,13 +10535,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>19</v>
-      </c>
-      <c r="G369" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11370,13 +10559,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>153</v>
-      </c>
-      <c r="G370" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11398,11 +10585,9 @@
       <c r="F371" t="s">
         <v>11</v>
       </c>
-      <c r="G371" t="s">
-        <v>12</v>
-      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11422,13 +10607,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>255</v>
-      </c>
-      <c r="G372" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11448,13 +10631,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>19</v>
-      </c>
-      <c r="G373" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11474,13 +10655,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>255</v>
-      </c>
-      <c r="G374" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11500,13 +10679,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>19</v>
-      </c>
-      <c r="G375" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11526,13 +10703,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>255</v>
-      </c>
-      <c r="G376" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11552,13 +10727,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>19</v>
-      </c>
-      <c r="G377" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11578,13 +10751,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>255</v>
-      </c>
-      <c r="G378" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11604,13 +10775,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>19</v>
-      </c>
-      <c r="G379" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11630,13 +10799,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>255</v>
-      </c>
-      <c r="G380" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11656,13 +10823,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>19</v>
-      </c>
-      <c r="G381" t="s">
-        <v>337</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11682,13 +10847,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>255</v>
-      </c>
-      <c r="G382" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11710,11 +10873,9 @@
       <c r="F383" t="s">
         <v>11</v>
       </c>
-      <c r="G383" t="s">
-        <v>12</v>
-      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11734,13 +10895,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>116</v>
-      </c>
-      <c r="G384" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11760,13 +10919,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>19</v>
-      </c>
-      <c r="G385" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11786,13 +10943,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>116</v>
-      </c>
-      <c r="G386" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11812,13 +10967,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>19</v>
-      </c>
-      <c r="G387" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11838,13 +10991,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>116</v>
-      </c>
-      <c r="G388" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11864,13 +11015,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>19</v>
-      </c>
-      <c r="G389" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11890,13 +11039,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>116</v>
-      </c>
-      <c r="G390" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11916,13 +11063,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>19</v>
-      </c>
-      <c r="G391" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11942,13 +11087,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>116</v>
-      </c>
-      <c r="G392" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11968,13 +11111,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>19</v>
-      </c>
-      <c r="G393" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11994,13 +11135,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>116</v>
-      </c>
-      <c r="G394" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12020,13 +11159,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>19</v>
-      </c>
-      <c r="G395" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12046,13 +11183,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>116</v>
-      </c>
-      <c r="G396" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12072,13 +11207,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>116</v>
-      </c>
-      <c r="G397" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12098,13 +11231,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>19</v>
-      </c>
-      <c r="G398" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12124,13 +11255,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>116</v>
-      </c>
-      <c r="G399" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12150,13 +11279,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>19</v>
-      </c>
-      <c r="G400" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12176,13 +11303,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>116</v>
-      </c>
-      <c r="G401" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12202,13 +11327,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>19</v>
-      </c>
-      <c r="G402" t="s">
-        <v>334</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12228,13 +11351,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>116</v>
-      </c>
-      <c r="G403" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12256,11 +11377,9 @@
       <c r="F404" t="s">
         <v>11</v>
       </c>
-      <c r="G404" t="s">
-        <v>12</v>
-      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12280,13 +11399,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>19</v>
-      </c>
-      <c r="G405" t="s">
-        <v>340</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12308,11 +11425,9 @@
       <c r="F406" t="s">
         <v>11</v>
       </c>
-      <c r="G406" t="s">
-        <v>12</v>
-      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12332,13 +11447,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>19</v>
-      </c>
-      <c r="G407" t="s">
-        <v>337</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12360,11 +11473,9 @@
       <c r="F408" t="s">
         <v>11</v>
       </c>
-      <c r="G408" t="s">
-        <v>12</v>
-      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12384,13 +11495,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>19</v>
-      </c>
-      <c r="G409" t="s">
-        <v>328</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12412,11 +11521,9 @@
       <c r="F410" t="s">
         <v>11</v>
       </c>
-      <c r="G410" t="s">
-        <v>12</v>
-      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12436,13 +11543,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>153</v>
-      </c>
-      <c r="G411" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12464,11 +11569,9 @@
       <c r="F412" t="s">
         <v>11</v>
       </c>
-      <c r="G412" t="s">
-        <v>12</v>
-      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12488,13 +11591,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>153</v>
-      </c>
-      <c r="G413" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12516,11 +11617,9 @@
       <c r="F414" t="s">
         <v>11</v>
       </c>
-      <c r="G414" t="s">
-        <v>12</v>
-      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
